--- a/data/trans_orig/Q5406-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6168</v>
+        <v>6252</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01414360614957559</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04781496393678877</v>
+        <v>0.04846892949424545</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8485</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3483</v>
+        <v>3836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16843</v>
+        <v>16221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03116927727738398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01279475142794951</v>
+        <v>0.01409305319341605</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06187378544677209</v>
+        <v>0.05958941687691046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4837</v>
+        <v>5187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18675</v>
+        <v>18778</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02569535622955436</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01205563706471938</v>
+        <v>0.01292751581954805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04654832005461098</v>
+        <v>0.04680307308479535</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5949</v>
+        <v>5995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17763</v>
+        <v>17485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08318942204629676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04612103425559343</v>
+        <v>0.0464775905649872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1377084105000011</v>
+        <v>0.1355482804721887</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -836,19 +836,19 @@
         <v>18102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10829</v>
+        <v>10626</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28213</v>
+        <v>28145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06650104672455423</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03978027279921924</v>
+        <v>0.03903730946759065</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1036426552693132</v>
+        <v>0.1033952277911079</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -857,19 +857,19 @@
         <v>28833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19584</v>
+        <v>18977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41005</v>
+        <v>40123</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07186652384683703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04881331604152679</v>
+        <v>0.04729904507382745</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1022062020619188</v>
+        <v>0.1000074310727063</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>116436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109194</v>
+        <v>108458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121259</v>
+        <v>121620</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9026669718041277</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8465234831806551</v>
+        <v>0.8408201149637323</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9400596665372798</v>
+        <v>0.9428549442345395</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>242</v>
@@ -907,19 +907,19 @@
         <v>245625</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>233723</v>
+        <v>233685</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>254239</v>
+        <v>254630</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9023296759980618</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8586049403789143</v>
+        <v>0.8584660324307923</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9339729543112657</v>
+        <v>0.9354109990501062</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>367</v>
@@ -928,19 +928,19 @@
         <v>362061</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>348646</v>
+        <v>348308</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>372403</v>
+        <v>373371</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9024381199236086</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8690008079744146</v>
+        <v>0.86815909360738</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9282158016084728</v>
+        <v>0.9306289519459549</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9124</v>
+        <v>8257</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01077247204615274</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05613008113755323</v>
+        <v>0.05079389942694486</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7356</v>
+        <v>5578</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009013536650984859</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03613224637925268</v>
+        <v>0.02739534003571221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1074,19 +1074,19 @@
         <v>3586</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11616</v>
+        <v>10119</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009794425259424035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002504254105069749</v>
+        <v>0.002486148529357528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03172424689417679</v>
+        <v>0.02763649192227601</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>9170</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4561</v>
+        <v>4565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16236</v>
+        <v>16829</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05641173951096467</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02805781264761593</v>
+        <v>0.02808453462808102</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09987796747903188</v>
+        <v>0.103529645319438</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1124,19 +1124,19 @@
         <v>6689</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3139</v>
+        <v>2252</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13632</v>
+        <v>13337</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03285627517164178</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01541712095479671</v>
+        <v>0.01106004583397828</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.066954408782916</v>
+        <v>0.06550887491666872</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -1145,19 +1145,19 @@
         <v>15859</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9363</v>
+        <v>9098</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24977</v>
+        <v>24342</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04331384730283246</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02557216467241535</v>
+        <v>0.02484701657821891</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06821336148329717</v>
+        <v>0.06647994849542757</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>151634</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142865</v>
+        <v>143451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156945</v>
+        <v>157064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9328157884428826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8788737645428902</v>
+        <v>0.8824794768156116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9654858440422561</v>
+        <v>0.9662195476713961</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -1195,19 +1195,19 @@
         <v>195072</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>186941</v>
+        <v>187277</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199330</v>
+        <v>199677</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9581301881773734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9181935474453916</v>
+        <v>0.9198416026019951</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9790432546200516</v>
+        <v>0.9807461411153648</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -1216,19 +1216,19 @@
         <v>346707</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>337470</v>
+        <v>335379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354517</v>
+        <v>353879</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9468917274377435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.921665071767153</v>
+        <v>0.9159530960097177</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9682196158228611</v>
+        <v>0.966478414118509</v>
       </c>
     </row>
     <row r="11">
@@ -1333,19 +1333,19 @@
         <v>4574</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1114</v>
+        <v>1240</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10448</v>
+        <v>10887</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03131734094745916</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007625217707808932</v>
+        <v>0.008488138339258676</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07153182436300391</v>
+        <v>0.07453520149752821</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1354,19 +1354,19 @@
         <v>4574</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1107</v>
+        <v>1132</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10713</v>
+        <v>10441</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01572059819839731</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003803772295501306</v>
+        <v>0.003890553501157773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03681804122059407</v>
+        <v>0.03588172779070468</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>6600</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2701</v>
+        <v>2858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12583</v>
+        <v>13500</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04554254649515558</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0186401981272523</v>
+        <v>0.01972467396383348</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08683033904255454</v>
+        <v>0.09315765350735983</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7797</v>
+        <v>6840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01541170264435695</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05337899783337277</v>
+        <v>0.04682870156304024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1425,19 +1425,19 @@
         <v>8851</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3913</v>
+        <v>4072</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15898</v>
+        <v>15965</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03041754305531258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01344814391878292</v>
+        <v>0.01399455007799329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05463627994631217</v>
+        <v>0.0548667881834228</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>138316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132333</v>
+        <v>131416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142215</v>
+        <v>142058</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9544574535048445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9131696609574447</v>
+        <v>0.9068423464926404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9813598018727475</v>
+        <v>0.9802753260361665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -1475,19 +1475,19 @@
         <v>139241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132411</v>
+        <v>132304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>143746</v>
+        <v>143683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9532709564081839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9065100984063209</v>
+        <v>0.9057779235035071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841078914362527</v>
+        <v>0.9836821147309315</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>271</v>
@@ -1496,19 +1496,19 @@
         <v>277559</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>268040</v>
+        <v>269471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283762</v>
+        <v>283926</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9538618587462901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9211494717784315</v>
+        <v>0.9260673218751444</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9751791963607137</v>
+        <v>0.9757459114353142</v>
       </c>
     </row>
     <row r="15">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4761</v>
+        <v>6227</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02683340125040422</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1213445155949316</v>
+        <v>0.158703080598468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4687</v>
+        <v>5938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01188582978647378</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05291583218577806</v>
+        <v>0.06704094002778234</v>
       </c>
     </row>
     <row r="17">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3419</v>
+        <v>4187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01664710576174953</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06929085484464073</v>
+        <v>0.08485674660995303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3377</v>
+        <v>4178</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009273285958767929</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03812733888105389</v>
+        <v>0.04716485200934361</v>
       </c>
     </row>
     <row r="18">
@@ -1726,7 +1726,7 @@
         <v>48521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45923</v>
+        <v>45155</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>49342</v>
@@ -1735,7 +1735,7 @@
         <v>0.9833528942382505</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9307091451553592</v>
+        <v>0.9151432533900468</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>38182</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34474</v>
+        <v>33008</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>39235</v>
@@ -1756,7 +1756,7 @@
         <v>0.9731665987495958</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8786554844050761</v>
+        <v>0.8412969194015316</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>86702</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82097</v>
+        <v>82286</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>88576</v>
@@ -1777,7 +1777,7 @@
         <v>0.9788408842547582</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.92685646416849</v>
+        <v>0.9289827377222722</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -1872,19 +1872,19 @@
         <v>3576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9974</v>
+        <v>11095</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007359998244802786</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001746735234307823</v>
+        <v>0.001731407036381685</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02053090055535714</v>
+        <v>0.02283768177739655</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1893,19 +1893,19 @@
         <v>15947</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8766</v>
+        <v>8754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25926</v>
+        <v>25791</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02412154372916581</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01325900065303936</v>
+        <v>0.01324196182300644</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03921549974601087</v>
+        <v>0.03901088841257478</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1914,19 +1914,19 @@
         <v>19523</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11702</v>
+        <v>11587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31404</v>
+        <v>30890</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01702178253247143</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01020325809985603</v>
+        <v>0.01010232371361372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02738155670247524</v>
+        <v>0.02693351256640018</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>27322</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19103</v>
+        <v>18847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38563</v>
+        <v>38629</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05624068129167536</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03932274183164447</v>
+        <v>0.03879556550535531</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07937912236649051</v>
+        <v>0.07951563036462583</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -1964,19 +1964,19 @@
         <v>27043</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17765</v>
+        <v>17986</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38720</v>
+        <v>38283</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04090533843665874</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02687167986641231</v>
+        <v>0.02720582247477833</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05856774619082789</v>
+        <v>0.05790709782967852</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>54</v>
@@ -1985,19 +1985,19 @@
         <v>54365</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40741</v>
+        <v>41459</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69477</v>
+        <v>69780</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04740099674225017</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03552232178541211</v>
+        <v>0.03614834254251992</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06057714142744531</v>
+        <v>0.06084136891722757</v>
       </c>
     </row>
     <row r="22">
@@ -2014,19 +2014,19 @@
         <v>454907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>443050</v>
+        <v>442048</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>463460</v>
+        <v>464090</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9363993204635218</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9119931526987214</v>
+        <v>0.909931277934743</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9540064617572451</v>
+        <v>0.9553037917019661</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>606</v>
@@ -2035,19 +2035,19 @@
         <v>618122</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>603942</v>
+        <v>603899</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>630375</v>
+        <v>630372</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9349731178341755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9135240360029088</v>
+        <v>0.9134595943090705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9535065835673981</v>
+        <v>0.9535025818075668</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1079</v>
@@ -2056,19 +2056,19 @@
         <v>1073028</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1055394</v>
+        <v>1056275</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1089290</v>
+        <v>1090166</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9355772207252784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9202019651421631</v>
+        <v>0.9209698678271037</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.949755450652441</v>
+        <v>0.9505191271828219</v>
       </c>
     </row>
     <row r="23">
@@ -2400,19 +2400,19 @@
         <v>6288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2979</v>
+        <v>2276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13468</v>
+        <v>12859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0457179389249304</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02165966293354863</v>
+        <v>0.01654598848530587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09792342887774608</v>
+        <v>0.0934982413116542</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2421,19 +2421,19 @@
         <v>11840</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6199</v>
+        <v>6469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19852</v>
+        <v>21244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05490723928078266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02874683748208352</v>
+        <v>0.03000174712442921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09206224514737751</v>
+        <v>0.09851966367601853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2442,19 +2442,19 @@
         <v>18128</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11079</v>
+        <v>11476</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27768</v>
+        <v>28920</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05132866896535333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0313701428736463</v>
+        <v>0.03249493610901783</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07862608902458425</v>
+        <v>0.0818867022260356</v>
       </c>
     </row>
     <row r="5">
@@ -2471,19 +2471,19 @@
         <v>14145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7446</v>
+        <v>7533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24512</v>
+        <v>23669</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1028464185913752</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05414298036735046</v>
+        <v>0.05477303901103444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1782257367498643</v>
+        <v>0.1720951551739264</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -2492,19 +2492,19 @@
         <v>18873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11139</v>
+        <v>12100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28641</v>
+        <v>30501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08752429717707527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0516551951164806</v>
+        <v>0.0561120156529758</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1328213371179565</v>
+        <v>0.1414478941666692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -2513,19 +2513,19 @@
         <v>33018</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23190</v>
+        <v>22226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46576</v>
+        <v>45677</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09349115936889581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06566418474958315</v>
+        <v>0.06293311295929531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1318801618015754</v>
+        <v>0.1293350890317903</v>
       </c>
     </row>
     <row r="6">
@@ -2542,19 +2542,19 @@
         <v>117100</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106716</v>
+        <v>108374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124895</v>
+        <v>125933</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8514356424836944</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7759296618710079</v>
+        <v>0.7879846992795654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9081068330368204</v>
+        <v>0.9156538140686253</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -2563,19 +2563,19 @@
         <v>184921</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>172471</v>
+        <v>172697</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194315</v>
+        <v>194696</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8575684635421421</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7998333559468059</v>
+        <v>0.8008795170522791</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9011340896316958</v>
+        <v>0.9028995848284507</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>278</v>
@@ -2584,19 +2584,19 @@
         <v>302021</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>287603</v>
+        <v>288061</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>314743</v>
+        <v>315438</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8551801716657509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8143528218794559</v>
+        <v>0.8156499113579316</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8912017580192005</v>
+        <v>0.8931693837955863</v>
       </c>
     </row>
     <row r="7">
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7171</v>
+        <v>8277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01255526978343037</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04157996492447272</v>
+        <v>0.04799047939154257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -2709,19 +2709,19 @@
         <v>9929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4426</v>
+        <v>4429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18015</v>
+        <v>18228</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04018882484895986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01791322535214776</v>
+        <v>0.01792514026770922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07291658319623601</v>
+        <v>0.07377638148490592</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -2730,19 +2730,19 @@
         <v>12095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6440</v>
+        <v>6527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21585</v>
+        <v>21622</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02882878454002904</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01534961129106172</v>
+        <v>0.01555728761142422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05144949697230413</v>
+        <v>0.05153835286206227</v>
       </c>
     </row>
     <row r="9">
@@ -2759,19 +2759,19 @@
         <v>10336</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5119</v>
+        <v>5052</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20171</v>
+        <v>19891</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05992818271922581</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02968287794839475</v>
+        <v>0.02929320612841014</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1169524992487992</v>
+        <v>0.115328834387486</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -2780,19 +2780,19 @@
         <v>20269</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12459</v>
+        <v>11872</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30183</v>
+        <v>29668</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08203934543257142</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05042608707016519</v>
+        <v>0.04805285002799183</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1221665153259929</v>
+        <v>0.1200801758706398</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -2801,19 +2801,19 @@
         <v>30605</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20620</v>
+        <v>19749</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44867</v>
+        <v>43114</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07294953780176591</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.049149122643416</v>
+        <v>0.04707434317184098</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1069433615344497</v>
+        <v>0.1027653747805539</v>
       </c>
     </row>
     <row r="10">
@@ -2830,19 +2830,19 @@
         <v>159969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150234</v>
+        <v>149732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165902</v>
+        <v>166091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9275165474973438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8710719622906845</v>
+        <v>0.8681620742329065</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9619198923034944</v>
+        <v>0.9630151483469339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -2851,19 +2851,19 @@
         <v>216868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>205900</v>
+        <v>204906</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>227155</v>
+        <v>226602</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8777718297184687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8333775119260093</v>
+        <v>0.8293532805702524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9194084950247502</v>
+        <v>0.9171694598959034</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>355</v>
@@ -2872,19 +2872,19 @@
         <v>376836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>362318</v>
+        <v>362058</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>388615</v>
+        <v>389695</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.898221677658205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8636156125192852</v>
+        <v>0.8629970598192908</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9262969354554401</v>
+        <v>0.928870322430035</v>
       </c>
     </row>
     <row r="11">
@@ -2976,19 +2976,19 @@
         <v>7353</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2931</v>
+        <v>3081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16444</v>
+        <v>15618</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04423433826595111</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01763231126553452</v>
+        <v>0.01853661661365895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09892231822480943</v>
+        <v>0.09395271841232526</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2997,19 +2997,19 @@
         <v>6231</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2053</v>
+        <v>2041</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14955</v>
+        <v>15229</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03243891210423676</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01068720607539951</v>
+        <v>0.01062773697864973</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07786393382728059</v>
+        <v>0.07928876422322105</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3018,19 +3018,19 @@
         <v>13584</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7062</v>
+        <v>7214</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24320</v>
+        <v>23092</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03791136529423738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0197089979662011</v>
+        <v>0.02013300318048815</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06787442513240408</v>
+        <v>0.06444707950003024</v>
       </c>
     </row>
     <row r="13">
@@ -3047,19 +3047,19 @@
         <v>11675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6260</v>
+        <v>5500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21292</v>
+        <v>20952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07023381707106949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03766037169631444</v>
+        <v>0.03308729710369418</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1280847044583675</v>
+        <v>0.1260361006311422</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3068,19 +3068,19 @@
         <v>8627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4173</v>
+        <v>3334</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16013</v>
+        <v>15874</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04491686136159281</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02172705576129981</v>
+        <v>0.01736037389064062</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08337093725456458</v>
+        <v>0.0826470923678304</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3089,19 +3089,19 @@
         <v>20303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12615</v>
+        <v>12133</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30599</v>
+        <v>31847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05666258831829429</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03520748462004756</v>
+        <v>0.03386296974548528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08539825026824929</v>
+        <v>0.08888309875867437</v>
       </c>
     </row>
     <row r="14">
@@ -3118,19 +3118,19 @@
         <v>147206</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136582</v>
+        <v>136330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>155153</v>
+        <v>154729</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8855318446629794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8216203209389512</v>
+        <v>0.8201021832479864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.933334496923668</v>
+        <v>0.9307822325259203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>166</v>
@@ -3139,19 +3139,19 @@
         <v>177213</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166177</v>
+        <v>167366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183554</v>
+        <v>184344</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9226442265341704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8651832923984025</v>
+        <v>0.8713757597615738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9556593155283065</v>
+        <v>0.9597714952756414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>301</v>
@@ -3160,19 +3160,19 @@
         <v>324420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>310654</v>
+        <v>310626</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>335701</v>
+        <v>334965</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9054260463874684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8670072860034053</v>
+        <v>0.8669281305726072</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9369101858764343</v>
+        <v>0.9348566319914862</v>
       </c>
     </row>
     <row r="15">
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3285,19 +3285,19 @@
         <v>3269</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8677</v>
+        <v>8724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03843395504518405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0118351936829195</v>
+        <v>0.01199937603294719</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1020202885475482</v>
+        <v>0.102575005561909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3306,19 +3306,19 @@
         <v>4301</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10587</v>
+        <v>9879</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02636307457141095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006599223051571137</v>
+        <v>0.006545661584723604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06489435297320287</v>
+        <v>0.06055458395652533</v>
       </c>
     </row>
     <row r="17">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5217</v>
+        <v>5024</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01284226593748102</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06679802018157407</v>
+        <v>0.06432776929968971</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3356,19 +3356,19 @@
         <v>3318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9037</v>
+        <v>9964</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03900988952719199</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01244024357300367</v>
+        <v>0.01248930705932773</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1062531614748551</v>
+        <v>0.1171568913390296</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -3377,19 +3377,19 @@
         <v>4321</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1083</v>
+        <v>1139</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10149</v>
+        <v>11689</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02648371247223533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006640032882616839</v>
+        <v>0.006983197417181297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06221027381343543</v>
+        <v>0.07164777611446317</v>
       </c>
     </row>
     <row r="18">
@@ -3406,7 +3406,7 @@
         <v>76062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71422</v>
+        <v>71631</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>78097</v>
@@ -3415,7 +3415,7 @@
         <v>0.9739402720661137</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9145245834633022</v>
+        <v>0.91720535899744</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -3427,19 +3427,19 @@
         <v>78463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71780</v>
+        <v>71388</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81988</v>
+        <v>81983</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9225561554276239</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8439717998407322</v>
+        <v>0.8393700135944783</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9639961711441156</v>
+        <v>0.9639401987207016</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>135</v>
@@ -3448,19 +3448,19 @@
         <v>154524</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147328</v>
+        <v>146590</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>158925</v>
+        <v>158958</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9471532129563537</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9030465070641709</v>
+        <v>0.8985194080304731</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9741282812357768</v>
+        <v>0.9743275870589826</v>
       </c>
     </row>
     <row r="19">
@@ -3552,19 +3552,19 @@
         <v>16839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9354</v>
+        <v>9233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26203</v>
+        <v>27532</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03037636958504111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01687456439597899</v>
+        <v>0.01665660034219502</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04726857817504218</v>
+        <v>0.04966731902212704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -3573,19 +3573,19 @@
         <v>31269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20554</v>
+        <v>21159</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44770</v>
+        <v>43839</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04226500661756225</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02778275154617257</v>
+        <v>0.02860059234576868</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06051498998027625</v>
+        <v>0.05925660671560612</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -3594,19 +3594,19 @@
         <v>48107</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35721</v>
+        <v>34947</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>64339</v>
+        <v>63457</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0371726679348272</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0276018709291578</v>
+        <v>0.02700388394600694</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04971544898451821</v>
+        <v>0.04903327059421671</v>
       </c>
     </row>
     <row r="21">
@@ -3623,19 +3623,19 @@
         <v>37159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25730</v>
+        <v>25384</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52380</v>
+        <v>52771</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06703325118294173</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04641538808524894</v>
+        <v>0.04579227919045172</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09449137809473093</v>
+        <v>0.09519709444573794</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -3644,19 +3644,19 @@
         <v>51087</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38848</v>
+        <v>37992</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>68250</v>
+        <v>64779</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06905369698654729</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0525099543701164</v>
+        <v>0.05135351497264433</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09225214568393303</v>
+        <v>0.08755975518149647</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>78</v>
@@ -3665,19 +3665,19 @@
         <v>88246</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>70301</v>
+        <v>71227</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>111397</v>
+        <v>108705</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0681882660465728</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05432159417312212</v>
+        <v>0.05503729752948349</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08607672255312386</v>
+        <v>0.0839970408004332</v>
       </c>
     </row>
     <row r="22">
@@ -3694,19 +3694,19 @@
         <v>500337</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>484871</v>
+        <v>483540</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>514386</v>
+        <v>514284</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9025903792320171</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8746913919209669</v>
+        <v>0.872289861021594</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9279354295397897</v>
+        <v>0.9277518653501079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>616</v>
@@ -3715,19 +3715,19 @@
         <v>657465</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>637390</v>
+        <v>639889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>672440</v>
+        <v>673144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8886812963958904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8615458453189517</v>
+        <v>0.8649245364489384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9089221945326295</v>
+        <v>0.9098746401495128</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1069</v>
@@ -3736,19 +3736,19 @@
         <v>1157802</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1131949</v>
+        <v>1133150</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1180441</v>
+        <v>1179299</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8946390660186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8746624040867362</v>
+        <v>0.8755909523828147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9121322412070253</v>
+        <v>0.9112500433432817</v>
       </c>
     </row>
     <row r="23">
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6339</v>
+        <v>5724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009761171915933441</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03808445173372172</v>
+        <v>0.03438988210935963</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4101,19 +4101,19 @@
         <v>3878</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11511</v>
+        <v>12364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01489192411588042</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004790497647950288</v>
+        <v>0.004807700022930446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04421017026577482</v>
+        <v>0.04748567310372938</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4122,19 +4122,19 @@
         <v>5502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2106</v>
+        <v>2058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12379</v>
+        <v>12531</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01289105288441764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004934555559170263</v>
+        <v>0.004821243565212568</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02900099100209296</v>
+        <v>0.02935762061418239</v>
       </c>
     </row>
     <row r="5">
@@ -4151,19 +4151,19 @@
         <v>8784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4259</v>
+        <v>4318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15382</v>
+        <v>15060</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05277193821457178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02558933669853846</v>
+        <v>0.02594080505407331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0924113098035866</v>
+        <v>0.09047831813898459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -4172,19 +4172,19 @@
         <v>13850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7388</v>
+        <v>7033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24272</v>
+        <v>23824</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05319332464385702</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02837383429707918</v>
+        <v>0.02701169172594462</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09322023747746036</v>
+        <v>0.09149954745292807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -4193,19 +4193,19 @@
         <v>22634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14549</v>
+        <v>14598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33570</v>
+        <v>34397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05302899396663305</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03408614274780624</v>
+        <v>0.03420085568863546</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07864895668890126</v>
+        <v>0.08058683950081397</v>
       </c>
     </row>
     <row r="6">
@@ -4222,19 +4222,19 @@
         <v>156045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>149556</v>
+        <v>149306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161150</v>
+        <v>161134</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9374668898694948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8984801455572637</v>
+        <v>0.8969833446299927</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9681331877381374</v>
+        <v>0.9680378974048275</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>207</v>
@@ -4243,19 +4243,19 @@
         <v>242650</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>232471</v>
+        <v>232057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>250385</v>
+        <v>250199</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9319147512402626</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8928231180720619</v>
+        <v>0.8912293830778473</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9616199451503249</v>
+        <v>0.9609074708536686</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>371</v>
@@ -4264,19 +4264,19 @@
         <v>398695</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>387203</v>
+        <v>385869</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>407898</v>
+        <v>408211</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9340799531489493</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9071552373836422</v>
+        <v>0.9040300586958233</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9556405381047754</v>
+        <v>0.9563747441241137</v>
       </c>
     </row>
     <row r="7">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4371</v>
+        <v>3392</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004668411182781222</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0257474238734642</v>
+        <v>0.01997891275388513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5265</v>
+        <v>5783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004698708405612392</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02384514053580954</v>
+        <v>0.02619040252744086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7046</v>
+        <v>6505</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004685539497875315</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01803936394794245</v>
+        <v>0.01665615123745011</v>
       </c>
     </row>
     <row r="9">
@@ -4439,19 +4439,19 @@
         <v>2563</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6803</v>
+        <v>7723</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01509876307704606</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004858549135989363</v>
+        <v>0.004883304156855449</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04007483171236507</v>
+        <v>0.04549244798017461</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4460,19 +4460,19 @@
         <v>14712</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7650</v>
+        <v>7753</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24706</v>
+        <v>24691</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06663083627290536</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03464382795867364</v>
+        <v>0.03511317314757597</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1118910630572706</v>
+        <v>0.1118234341971023</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -4481,19 +4481,19 @@
         <v>17276</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9295</v>
+        <v>10198</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29048</v>
+        <v>28533</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0442320467469426</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02379836920265187</v>
+        <v>0.02611013667275944</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07437323572095575</v>
+        <v>0.07305410606676509</v>
       </c>
     </row>
     <row r="10">
@@ -4510,19 +4510,19 @@
         <v>166407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162005</v>
+        <v>161285</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168930</v>
+        <v>168926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9802328257401727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9542992472416933</v>
+        <v>0.9500588372833808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9950921524148603</v>
+        <v>0.9950666719524817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -4531,19 +4531,19 @@
         <v>205055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194323</v>
+        <v>194330</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212084</v>
+        <v>212005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9286704553214823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8800674048819397</v>
+        <v>0.8800999666127677</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9605025856471771</v>
+        <v>0.9601438616506015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>355</v>
@@ -4552,19 +4552,19 @@
         <v>371462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359695</v>
+        <v>360305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>379430</v>
+        <v>379322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9510824137551821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9209546576782911</v>
+        <v>0.9225156238225433</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9714823485541947</v>
+        <v>0.971206498258806</v>
       </c>
     </row>
     <row r="11">
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6208</v>
+        <v>6213</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01120408687330208</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03985224820531291</v>
+        <v>0.0398834164475806</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -4677,19 +4677,19 @@
         <v>7764</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2519</v>
+        <v>3188</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17586</v>
+        <v>17605</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04217320293792167</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01368475176838111</v>
+        <v>0.01731350163306127</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09552354259254098</v>
+        <v>0.09562695562127568</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4698,19 +4698,19 @@
         <v>9510</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3825</v>
+        <v>4017</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20220</v>
+        <v>20452</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02797955177179541</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01125378365071843</v>
+        <v>0.01181893030104776</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05949111253251368</v>
+        <v>0.06017616151099436</v>
       </c>
     </row>
     <row r="13">
@@ -4727,19 +4727,19 @@
         <v>5260</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1829</v>
+        <v>1846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11043</v>
+        <v>12235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03376460743732224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01174442409960692</v>
+        <v>0.01184775323129518</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07089499884939959</v>
+        <v>0.07854740500125748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4748,19 +4748,19 @@
         <v>6921</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2491</v>
+        <v>2449</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15442</v>
+        <v>15638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03759367366088581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01352844931648929</v>
+        <v>0.01330401938496873</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0838729495088141</v>
+        <v>0.08493828268592465</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -4769,19 +4769,19 @@
         <v>12181</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6226</v>
+        <v>6327</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22423</v>
+        <v>23608</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03583875013785547</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01831812240312281</v>
+        <v>0.01861636198834422</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06597299144532888</v>
+        <v>0.06945928953237213</v>
       </c>
     </row>
     <row r="14">
@@ -4798,19 +4798,19 @@
         <v>148766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>142278</v>
+        <v>141013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152753</v>
+        <v>152688</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9550313056893757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9133780349547768</v>
+        <v>0.9052579406432565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9806232050861536</v>
+        <v>0.9802099834824627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -4819,19 +4819,19 @@
         <v>169420</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157802</v>
+        <v>158168</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176788</v>
+        <v>176503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9202331234011926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8571262632665768</v>
+        <v>0.8591131147657599</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9602517972200775</v>
+        <v>0.9587013746398092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>301</v>
@@ -4840,19 +4840,19 @@
         <v>318187</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302998</v>
+        <v>306045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>326516</v>
+        <v>327010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9361816980903491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8914937165397591</v>
+        <v>0.9004566666485573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9606875479140379</v>
+        <v>0.9621418551502339</v>
       </c>
     </row>
     <row r="15">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5772</v>
+        <v>5269</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01875287933561863</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06563728474172997</v>
+        <v>0.05990901070440679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6165</v>
+        <v>5445</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01131090840636246</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05786427043135984</v>
+        <v>0.0511135799740537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4986,19 +4986,19 @@
         <v>2854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7808</v>
+        <v>8057</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01467619743586887</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004187962100915923</v>
+        <v>0.004056825968403632</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04014879843551596</v>
+        <v>0.04142910410357983</v>
       </c>
     </row>
     <row r="17">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5603</v>
+        <v>5598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01812554747807369</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06371231889071258</v>
+        <v>0.06364899715898886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -5036,19 +5036,19 @@
         <v>5063</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1303</v>
+        <v>1240</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11806</v>
+        <v>12005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04752068863402278</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01223131024534952</v>
+        <v>0.01163632062338484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.110818641272119</v>
+        <v>0.1126816735371693</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -5057,19 +5057,19 @@
         <v>6657</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2554</v>
+        <v>2542</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14331</v>
+        <v>13959</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03422808819345706</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01312991020261822</v>
+        <v>0.01307283965591593</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07368818576386989</v>
+        <v>0.07177819025091302</v>
       </c>
     </row>
     <row r="18">
@@ -5086,19 +5086,19 @@
         <v>84702</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80531</v>
+        <v>80185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87146</v>
+        <v>87119</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9631215731863076</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9156959807599611</v>
+        <v>0.9117593106535024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.990913586558518</v>
+        <v>0.9906053940358009</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -5107,19 +5107,19 @@
         <v>100268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>93043</v>
+        <v>93623</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>104066</v>
+        <v>104152</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9411684029596148</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8733466524194813</v>
+        <v>0.8787955527168582</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9768120366067838</v>
+        <v>0.9776253572871109</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>171</v>
@@ -5128,19 +5128,19 @@
         <v>184970</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176904</v>
+        <v>177082</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189711</v>
+        <v>190209</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9510957143706741</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9096210879897434</v>
+        <v>0.9105382335181974</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.975474386554948</v>
+        <v>0.9780328912462636</v>
       </c>
     </row>
     <row r="19">
@@ -5232,19 +5232,19 @@
         <v>5812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2423</v>
+        <v>2460</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11075</v>
+        <v>11068</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01002150992721946</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004178471247228854</v>
+        <v>0.004242465296608787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01909756996005037</v>
+        <v>0.01908539324728427</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -5253,19 +5253,19 @@
         <v>13884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7058</v>
+        <v>6898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25529</v>
+        <v>25511</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01798903781559193</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00914475243469874</v>
+        <v>0.008937400022009987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03307659471327524</v>
+        <v>0.03305293305935011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -5274,19 +5274,19 @@
         <v>19696</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11742</v>
+        <v>11925</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30941</v>
+        <v>32419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01457079367096058</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008686276987299114</v>
+        <v>0.008822028953491518</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02288967682447579</v>
+        <v>0.02398278268639286</v>
       </c>
     </row>
     <row r="21">
@@ -5303,19 +5303,19 @@
         <v>18201</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11349</v>
+        <v>11152</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27767</v>
+        <v>27460</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03138450270484728</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01957003331139123</v>
+        <v>0.01922962411605915</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04788014753178308</v>
+        <v>0.04735079102623026</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -5324,19 +5324,19 @@
         <v>40547</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28349</v>
+        <v>28321</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56881</v>
+        <v>56400</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05253350866001691</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03673015868530969</v>
+        <v>0.03669312377058649</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07369660428839273</v>
+        <v>0.07307375142784349</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -5345,19 +5345,19 @@
         <v>58748</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44362</v>
+        <v>44714</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75743</v>
+        <v>77560</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04346012143327959</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03281770020089692</v>
+        <v>0.03307828261282317</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05603306889909215</v>
+        <v>0.05737689399078769</v>
       </c>
     </row>
     <row r="22">
@@ -5374,19 +5374,19 @@
         <v>555921</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>546054</v>
+        <v>547064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>563918</v>
+        <v>564414</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9585939873679332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9415793602700272</v>
+        <v>0.9433207424213322</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9723835927148085</v>
+        <v>0.9732386717482124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>609</v>
@@ -5395,19 +5395,19 @@
         <v>717393</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>697026</v>
+        <v>699181</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>731182</v>
+        <v>732605</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9294774535243912</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9030892128932517</v>
+        <v>0.9058811806889783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9473434538926383</v>
+        <v>0.9491869615895233</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1198</v>
@@ -5416,19 +5416,19 @@
         <v>1273314</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1253728</v>
+        <v>1251709</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1291047</v>
+        <v>1289678</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9419690848957598</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9274798767273529</v>
+        <v>0.9259862164779566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9550872900706396</v>
+        <v>0.9540747782878416</v>
       </c>
     </row>
     <row r="23">
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3111</v>
+        <v>3087</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009065218702050177</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04624890483697006</v>
+        <v>0.04589191761354418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -5781,19 +5781,19 @@
         <v>3533</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1257</v>
+        <v>1560</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7461</v>
+        <v>8819</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02477153017030922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008813144358482026</v>
+        <v>0.01093720239206721</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05231013881463776</v>
+        <v>0.0618315985849637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -5802,19 +5802,19 @@
         <v>4143</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1615</v>
+        <v>1638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8393</v>
+        <v>7918</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01973763741939999</v>
+        <v>0.01973763741939998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007695547536519056</v>
+        <v>0.007803638275284605</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03998475195010336</v>
+        <v>0.03771884089593894</v>
       </c>
     </row>
     <row r="5">
@@ -5831,19 +5831,19 @@
         <v>2892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6847</v>
+        <v>6301</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04298681541706573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01452408273074195</v>
+        <v>0.01448282473320251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1017706486189381</v>
+        <v>0.09365104403005743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -5852,19 +5852,19 @@
         <v>10462</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6658</v>
+        <v>6547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15468</v>
+        <v>15371</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07335084141698527</v>
+        <v>0.07335084141698528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04667532088031109</v>
+        <v>0.04589735851070207</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1084477556976398</v>
+        <v>0.1077623299738691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -5873,19 +5873,19 @@
         <v>13354</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9018</v>
+        <v>9118</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19244</v>
+        <v>19246</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06361913256361709</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04295979686809166</v>
+        <v>0.04343538589304185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09167631853209321</v>
+        <v>0.09168365796764302</v>
       </c>
     </row>
     <row r="6">
@@ -5902,19 +5902,19 @@
         <v>63775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59730</v>
+        <v>59958</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65929</v>
+        <v>65887</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9479479658808843</v>
+        <v>0.9479479658808841</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8878202680265631</v>
+        <v>0.8912055378131744</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9799581715466149</v>
+        <v>0.9793423076413876</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>237</v>
@@ -5923,19 +5923,19 @@
         <v>128639</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122868</v>
+        <v>123308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>133096</v>
+        <v>133101</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9018776284127055</v>
+        <v>0.9018776284127054</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8614132414334219</v>
+        <v>0.8645015053664705</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9331221631231486</v>
+        <v>0.9331565882440919</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>325</v>
@@ -5944,19 +5944,19 @@
         <v>192414</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>185847</v>
+        <v>185728</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>197346</v>
+        <v>197531</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.916643230016983</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8853569377875443</v>
+        <v>0.8847877971315857</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9401382952152677</v>
+        <v>0.9410179381429694</v>
       </c>
     </row>
     <row r="7">
@@ -6048,19 +6048,19 @@
         <v>3869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1733</v>
+        <v>1660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8448</v>
+        <v>8005</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01928341667465253</v>
+        <v>0.01928341667465254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008639006678322861</v>
+        <v>0.008271918962953522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04210411566556242</v>
+        <v>0.03989771748202573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -6069,19 +6069,19 @@
         <v>9445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5104</v>
+        <v>5532</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14783</v>
+        <v>15373</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0312410284493609</v>
+        <v>0.03124102844936091</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01688054392149871</v>
+        <v>0.01829679316733996</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04889548438834625</v>
+        <v>0.05084741511651816</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -6090,19 +6090,19 @@
         <v>13314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8704</v>
+        <v>8699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19947</v>
+        <v>19151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02647112872612018</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0173051383949854</v>
+        <v>0.017294237250944</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03965776533485271</v>
+        <v>0.03807647139098903</v>
       </c>
     </row>
     <row r="9">
@@ -6119,19 +6119,19 @@
         <v>10212</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6038</v>
+        <v>5789</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16855</v>
+        <v>16340</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05089949036798991</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03009381624069576</v>
+        <v>0.02885130270783092</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08401025766046263</v>
+        <v>0.08144212048515928</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -6140,19 +6140,19 @@
         <v>24064</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17728</v>
+        <v>18025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31625</v>
+        <v>31993</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.07959204636144247</v>
+        <v>0.07959204636144249</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05863543048668723</v>
+        <v>0.05961935374008408</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1046004466605798</v>
+        <v>0.1058177525646978</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>62</v>
@@ -6161,19 +6161,19 @@
         <v>34276</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>27001</v>
+        <v>26825</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43626</v>
+        <v>44399</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06814656565251753</v>
+        <v>0.06814656565251755</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05368302459645314</v>
+        <v>0.05333349557371531</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08673581184000531</v>
+        <v>0.08827319873237745</v>
       </c>
     </row>
     <row r="10">
@@ -6190,19 +6190,19 @@
         <v>186555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179176</v>
+        <v>179218</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191322</v>
+        <v>191558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9298170929573576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8930394669650059</v>
+        <v>0.8932497794226754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9535799314497262</v>
+        <v>0.9547521923589185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>504</v>
@@ -6211,19 +6211,19 @@
         <v>268828</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>260067</v>
+        <v>260550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>276060</v>
+        <v>276145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8891669251891966</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8601905671547229</v>
+        <v>0.8617863387076168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9130861743899955</v>
+        <v>0.9133691299870289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>775</v>
@@ -6232,19 +6232,19 @@
         <v>455383</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>444153</v>
+        <v>443683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464778</v>
+        <v>464415</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9053823056213622</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.88305447756612</v>
+        <v>0.8821208011668379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9240609365052191</v>
+        <v>0.9233393425045578</v>
       </c>
     </row>
     <row r="11">
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5157</v>
+        <v>5336</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006185800343599618</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02248806487059718</v>
+        <v>0.02327057886723782</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -6357,19 +6357,19 @@
         <v>8600</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4961</v>
+        <v>4834</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14556</v>
+        <v>14808</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03646009391243038</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02103207638905352</v>
+        <v>0.02049305700412088</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06171374868488867</v>
+        <v>0.06278014388337298</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -6378,19 +6378,19 @@
         <v>10018</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5748</v>
+        <v>5996</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16256</v>
+        <v>15902</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0215360447519498</v>
+        <v>0.02153604475194979</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01235750916094495</v>
+        <v>0.01288928250448156</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03494644383487</v>
+        <v>0.03418384469852663</v>
       </c>
     </row>
     <row r="13">
@@ -6407,19 +6407,19 @@
         <v>6016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2783</v>
+        <v>2866</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11230</v>
+        <v>11178</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02623598782713338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01213511615100869</v>
+        <v>0.01249981517491868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04897420904935819</v>
+        <v>0.04874658283212267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6428,19 +6428,19 @@
         <v>11879</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7573</v>
+        <v>7718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17924</v>
+        <v>17893</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05036266302361036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03210913301836893</v>
+        <v>0.03272322570878553</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07599199882166242</v>
+        <v>0.0758602806747589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -6449,19 +6449,19 @@
         <v>17895</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12294</v>
+        <v>12452</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24967</v>
+        <v>26214</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03846915059886854</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02642907484239217</v>
+        <v>0.02676824992220764</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05367264128441484</v>
+        <v>0.05635306637257091</v>
       </c>
     </row>
     <row r="14">
@@ -6478,19 +6478,19 @@
         <v>221879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216548</v>
+        <v>216123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>225720</v>
+        <v>225439</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.967578211829267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9443299121533922</v>
+        <v>0.9424775718406816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.984326619758072</v>
+        <v>0.9831036303846122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>411</v>
@@ -6499,19 +6499,19 @@
         <v>215385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>208261</v>
+        <v>208034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>221279</v>
+        <v>221401</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9131772430639593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8829764121461703</v>
+        <v>0.8820103149642144</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9381654707807917</v>
+        <v>0.9386865248507509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>728</v>
@@ -6520,19 +6520,19 @@
         <v>437265</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>428900</v>
+        <v>428182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>444247</v>
+        <v>444072</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9399948046491816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9220133723089756</v>
+        <v>0.9204681285599378</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9550035933122343</v>
+        <v>0.9546284602389689</v>
       </c>
     </row>
     <row r="15">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2484</v>
+        <v>2767</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002597681180325381</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01166981501652912</v>
+        <v>0.01299850816814014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6645,19 +6645,19 @@
         <v>3076</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1184</v>
+        <v>1115</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7181</v>
+        <v>6297</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01479337843482197</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005697161900507853</v>
+        <v>0.005364352712332546</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03454135847218537</v>
+        <v>0.0302867074821654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6666,19 +6666,19 @@
         <v>3629</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1674</v>
+        <v>1569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7277</v>
+        <v>7417</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008623949660337396</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003977509534462527</v>
+        <v>0.003728427907712275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01729583494970576</v>
+        <v>0.01762803399960505</v>
       </c>
     </row>
     <row r="17">
@@ -6695,19 +6695,19 @@
         <v>3850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1275</v>
+        <v>1091</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9196</v>
+        <v>8996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01809039087721673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005991992238865386</v>
+        <v>0.005124200506688368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04320717760118482</v>
+        <v>0.04226592635662706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -6716,19 +6716,19 @@
         <v>7914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4593</v>
+        <v>4627</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12421</v>
+        <v>12341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0380646813926965</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02209292401168993</v>
+        <v>0.02225340815811055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05974146674189915</v>
+        <v>0.05935857105258715</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -6737,19 +6737,19 @@
         <v>11764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7294</v>
+        <v>7287</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18102</v>
+        <v>18053</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02796030112770755</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01733451270043588</v>
+        <v>0.01731988390193215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04302208120057865</v>
+        <v>0.0429059517388554</v>
       </c>
     </row>
     <row r="18">
@@ -6766,19 +6766,19 @@
         <v>208443</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>203190</v>
+        <v>202924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211262</v>
+        <v>211047</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9793119279424579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9546341421824769</v>
+        <v>0.9533855070389639</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9925580850436889</v>
+        <v>0.9915477722199315</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>372</v>
@@ -6787,19 +6787,19 @@
         <v>196917</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>191628</v>
+        <v>191940</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>200965</v>
+        <v>200854</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9471419401724814</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9216996799190826</v>
+        <v>0.9232026279184218</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9666077599955041</v>
+        <v>0.9660738611577415</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>668</v>
@@ -6808,19 +6808,19 @@
         <v>405359</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>398392</v>
+        <v>398241</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>410892</v>
+        <v>410574</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9634157492119549</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9468560639701807</v>
+        <v>0.9464992204528531</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9765657443804151</v>
+        <v>0.9758097996625006</v>
       </c>
     </row>
     <row r="19">
@@ -6912,19 +6912,19 @@
         <v>6450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3387</v>
+        <v>3263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11457</v>
+        <v>11440</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.009083896799923569</v>
+        <v>0.009083896799923571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004770282031033717</v>
+        <v>0.004595732240168611</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01613469028590398</v>
+        <v>0.01611140165671522</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -6933,19 +6933,19 @@
         <v>24654</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17692</v>
+        <v>17937</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32963</v>
+        <v>32899</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02774016205452642</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01990684997270763</v>
+        <v>0.02018196164224733</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03708937959047576</v>
+        <v>0.03701762484277339</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -6954,19 +6954,19 @@
         <v>31104</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23306</v>
+        <v>23531</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40137</v>
+        <v>40998</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01945445041093454</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01457693532112093</v>
+        <v>0.01471803911664208</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02510442222392317</v>
+        <v>0.02564278312842815</v>
       </c>
     </row>
     <row r="21">
@@ -6983,19 +6983,19 @@
         <v>22971</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16139</v>
+        <v>16518</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31915</v>
+        <v>31928</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03235026586381439</v>
+        <v>0.0323502658638144</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0227288268313521</v>
+        <v>0.02326247282294374</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04494582324001921</v>
+        <v>0.04496422395192907</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>107</v>
@@ -7004,19 +7004,19 @@
         <v>54319</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44331</v>
+        <v>44305</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>66592</v>
+        <v>64368</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06111855129867366</v>
+        <v>0.06111855129867367</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04988076613164154</v>
+        <v>0.04985187734817902</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07492876726953188</v>
+        <v>0.07242636889646593</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>143</v>
@@ -7025,19 +7025,19 @@
         <v>77290</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>65433</v>
+        <v>64495</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91208</v>
+        <v>91744</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04834183986469688</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04092582664433697</v>
+        <v>0.04033921497665154</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05704705159841433</v>
+        <v>0.05738277816545269</v>
       </c>
     </row>
     <row r="22">
@@ -7054,19 +7054,19 @@
         <v>680652</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>671007</v>
+        <v>671213</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>688429</v>
+        <v>689124</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.958565837336262</v>
+        <v>0.9585658373362622</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.944983322118589</v>
+        <v>0.9452737927641519</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9695182514820213</v>
+        <v>0.9704980277429069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1524</v>
@@ -7075,19 +7075,19 @@
         <v>809769</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>795617</v>
+        <v>796115</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>821718</v>
+        <v>821486</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9111412866467999</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8952177669315183</v>
+        <v>0.895778221651245</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9245870223099042</v>
+        <v>0.9243253445919561</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2496</v>
@@ -7096,19 +7096,19 @@
         <v>1490421</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1474909</v>
+        <v>1475573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1504457</v>
+        <v>1505186</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9322037097243686</v>
+        <v>0.9322037097243687</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9225015763018322</v>
+        <v>0.9229163704410043</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.940982296518606</v>
+        <v>0.9414387518116862</v>
       </c>
     </row>
     <row r="23">
